--- a/data/NHT.xlsx
+++ b/data/NHT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>NHT</t>
@@ -19154,7 +19154,7 @@
         <v>3.9202563337E10</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>3.4786512454E10</v>
+        <v>3.5734231054E10</v>
       </c>
       <c r="I13" s="21" t="n">
         <v>2.6543309965E10</v>
@@ -20194,7 +20194,7 @@
         <v>1.21882369112E11</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>2.3498039145E10</v>
+        <v>2.4445757745E10</v>
       </c>
       <c r="I23" s="21" t="n">
         <v>5.1923398814E10</v>
@@ -20610,7 +20610,7 @@
         <v>6.853462408E9</v>
       </c>
       <c r="H27" s="21" t="n">
-        <v>5.781227296E9</v>
+        <v>4.833508696E9</v>
       </c>
       <c r="I27" s="21" t="n">
         <v>2.86117942E8</v>

--- a/data/NHT.xlsx
+++ b/data/NHT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>NHT</t>

--- a/data/NHT.xlsx
+++ b/data/NHT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>NHT</t>

--- a/data/NHT.xlsx
+++ b/data/NHT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>NHT</t>
